--- a/medicine/Mort/Décès_en_2022/Décès_en_2022.xlsx
+++ b/medicine/Mort/Décès_en_2022/Décès_en_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2022</t>
+          <t>Décès_en_2022</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_2022</t>
+          <t>Décès_en_2022</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,8 +540,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-1er janvier :
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier :
 Pierre Parsus, peintre et illustrateur français.
 Roger-Xavier Lantéri, journaliste français.
 2 janvier :
@@ -599,9 +616,43 @@
 27 janvier : René de Obaldia, dramaturge et poète français.
 28 janvier : Joseph Belmont, homme politique seychellois.
 29 janvier : Bernard Quilfen, coureur cycliste français et directeur sportif d'équipes cyclistes.
-30 janvier : Cheslie Kryst, avocate et mannequin américaine.
-Février
-1er février : Shintarō Ishihara, écrivain et homme politique japonais
+30 janvier : Cheslie Kryst, avocate et mannequin américaine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_2022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2022</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er février : Shintarō Ishihara, écrivain et homme politique japonais
 2 février : Monica Vitti, actrice italienne
 3 février : Chrístos Sartzetákis, homme d'État grec.
 6 février :
@@ -641,9 +692,43 @@
 27 février :
 Mariétta Yannákou, femme politique grecque.
 Ichirō Abe, enseignant de judo du Kōdōkan.
-28 février : Dominique Paturel, acteur français.
-Mars
-2 mars : Jean-Pierre Pernaut, journaliste et présentateur de télévision français.
+28 février : Dominique Paturel, acteur français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_2022</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2022</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 mars : Jean-Pierre Pernaut, journaliste et présentateur de télévision français.
 3 mars : Shane Olivea, joueur américain de football américain.
 4 mars :
 Anne Beaumanoir, résistante, Juste parmi les nations, médecin neurophysiologiste et militante française.
@@ -680,9 +765,43 @@
 28 mars : Mira Calix, compositrice, plasticienne sonore et interprète britannique d'origine sud-africaine.
 30 mars : Tom Parker, chanteur anglais.
 31 mars : Patrick Demarchelier, photographe français.
-31 mars : Oleksi Tsibko, joueur et dirigeant de rugby à XV, homme politique ukrainien.
-Avril
-1er avril : Aleksandra Iakovleva, actrice russe.
+31 mars : Oleksi Tsibko, joueur et dirigeant de rugby à XV, homme politique ukrainien.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_2022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2022</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1er avril : Aleksandra Iakovleva, actrice russe.
 2 avril : Estelle Harris, actrice américaine.
 4 avril : Gene Shue, Joueur puis entraîneur américain de basket-ball.
 5 avril : Stanisław Kowalski, supercentenaire polonais.
@@ -717,9 +836,43 @@
 28 avril : Neal Adams, dessinateur américain.
 30 avril :
 Mino Raiola, agent de joueurs de football italien.
-Ricardo Alarcón, homme politique cubain.
-Mai
-1er mai :
+Ricardo Alarcón, homme politique cubain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_2022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2022</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er mai :
 Régine, femme d'affaires et chanteuse française.
 Michel Vinaver, écrivain de théâtre français
 2 mai : Joseph Raz, philosophe israélien.
@@ -751,9 +904,43 @@
 28 mai :
 Bujar Nishani, homme d'état albanais.
 Evaristo Carvalho, homme d'État santoméen.
-30 mai : Boris Pahor, écrivain slovène.
-Juin
-1er juin : Jean Lèques, homme politique néo-calédonien.
+30 mai : Boris Pahor, écrivain slovène.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_2022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2022</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1er juin : Jean Lèques, homme politique néo-calédonien.
 2 juin : Uri Zohar, rabbin israélien.
 4 juin : Serge Diantantu, auteur et dessinateur de bande dessinée congolais.
 5 juin : Alec John Such, bassiste américain.
@@ -776,9 +963,43 @@
 27 juin : Leonardo Del Vecchio, industriel italien.
 28 juin : Hichem Rostom, acteur tunisien.
 29 juin : Yehuda Meshi Zahav, militant israélien accusé de viols, maltraitances et détournements de fonds.
-30 juin : Technoblade, youtubeur Minecraft américain faisant partie de la Dream SMP.
-Juillet
-2 juillet : Peter Brook, metteur en scène, réalisateur et écrivain britannique.
+30 juin : Technoblade, youtubeur Minecraft américain faisant partie de la Dream SMP.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_2022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2022</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2 juillet : Peter Brook, metteur en scène, réalisateur et écrivain britannique.
 3 juillet :
 Robert Curl, chimiste américain et prix Nobel 1996.
 Clifford Alexander Jr., ancien secrétaire des armées des États-Unis et avocat américain.
@@ -810,9 +1031,43 @@
 31 juillet :
 Christophe Izard, homme de télévision français, co-créateur de Casimir et de L'Île aux enfants.
 Bill Russell, Joueur de basket-ball américain.
-Ayman al-Zawahiri, terroriste islamiste égyptien, chef d'Al-Qaïda.
-Août
-3 août : Jackie Walorski , femme politique américaine, représentante des États-Unis pour l’Indiana.
+Ayman al-Zawahiri, terroriste islamiste égyptien, chef d'Al-Qaïda.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_2022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2022</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3 août : Jackie Walorski , femme politique américaine, représentante des États-Unis pour l’Indiana.
 6 août : Daniel Lévi, auteur-compositeur-interprète français.
 7 août :
 Anatoli Filiptchenko, cosmonaute russe.
@@ -840,9 +1095,43 @@
 Vicenç Pagès i Jordà, conteur et romancier espagnol.
 Suleiman Kangangi, coureur cycliste kényan.
 29 août : Charlbi Dean, actrice sud-africaine.
-30 août : Mikhaïl Gorbatchev, homme d'État soviétique puis russe et dernier président de l’URSS.
-Septembre
-1er septembre : Ravil Maganov, homme d'affaires russe.
+30 août : Mikhaïl Gorbatchev, homme d'État soviétique puis russe et dernier président de l’URSS.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_2022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2022</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er septembre : Ravil Maganov, homme d'affaires russe.
 5 septembre : Lars Vogt, pianiste et chef d'orchestre allemand.
 6 septembre : Marsha Hunt, actrice américaine.
 8 septembre : Élisabeth II, reine du Royaume-Uni et des autres royaumes du Commonwealth.
@@ -871,9 +1160,43 @@
 Amadou Ali, homme politique camerounais.
 28 septembre : Artis Leon Ivey, dit Coolio, rappeur américain.
 29 septembre : Paul Veyne, historien français.
-30 septembre : Franco Dragone, metteur en scène belge
-Octobre
-1er octobre : Antonio Inoki, personnalité politique japonaise.
+30 septembre : Franco Dragone, metteur en scène belge</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_2022</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2022</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er octobre : Antonio Inoki, personnalité politique japonaise.
 2 octobre : Éder Jofre, boxeur brésilien.
 3 octobre : Kim Jung Gi, illustrateur sud-coréen.
 4 octobre : Loretta Lynn, auteur-compositrice-interprète américaine de musique country.
@@ -901,9 +1224,43 @@
 27 octobre : Maurice Olender, historien belge.
 28 octobre : Jerry Lee Lewis, chanteur-pianiste américain.
 30 octobre : Rosemarie Köhn, théologienne et pasteur norvégienne.
-31 octobre : Philippe Alexandre, journaliste et écrivain français.
-Novembre
-1er novembre : Takeoff, rappeur américain.
+31 octobre : Philippe Alexandre, journaliste et écrivain français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_2022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2022</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er novembre : Takeoff, rappeur américain.
 2 novembre : Mauro Forghieri, ingénieur italien, concepteur de voitures de course, directeur technique de la Scuderia Ferrari en Formule 1 pendant plus de 20 ans.
 3 novembre : Nicole Josy, chanteuse belge.
 5 novembre : Aaron Carter, chanteur, compositeur et acteur américain.
@@ -929,9 +1286,43 @@
 Christiane Hörbiger, comédienne autrichienne
 Christine McVie, chanteuse du groupe Fleetwood Mac.
 Jiang Zemin, homme d'État chinois.
-Georges Groine, pilote de camion en rallye-raid et team manager français.
-Décembre
-1er décembre : Mylène Demongeot, actrice et productrice française.
+Georges Groine, pilote de camion en rallye-raid et team manager français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_2022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_2022</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er décembre : Mylène Demongeot, actrice et productrice française.
 4 décembre :
 Dominique Lapierre, écrivain français.
 Patrick Tambay, pilote de Formule 1 français.
